--- a/pubmed_validation_sheets/29202148 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/29202148 DISNET VALIDATION.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{77CF825F-5794-CE48-9CE3-834C1A14A6AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="460" windowWidth="21400" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="38500" yWindow="460" windowWidth="21400" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -183,18 +183,28 @@
   </si>
   <si>
     <t>Holter monitoring</t>
+  </si>
+  <si>
+    <t>ups</t>
+  </si>
+  <si>
+    <t>Malignant fibrous histiocytoma</t>
+  </si>
+  <si>
+    <t>[neop]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +221,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,16 +290,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,44 +444,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,10 +495,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +538,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -525,7 +560,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -636,7 +675,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -830,21 +869,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -856,37 +895,37 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="128" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:14" ht="128" customHeight="1" thickBot="1">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -912,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -940,8 +979,12 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -969,8 +1012,12 @@
       <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -998,8 +1045,12 @@
       <c r="I6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1027,8 +1078,12 @@
       <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1056,8 +1111,12 @@
       <c r="I8" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1085,8 +1144,12 @@
       <c r="I9" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1114,8 +1177,12 @@
       <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1143,8 +1210,12 @@
       <c r="I11" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1172,8 +1243,12 @@
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1201,8 +1276,12 @@
       <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1230,8 +1309,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1259,8 +1342,12 @@
       <c r="I15" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1288,8 +1375,12 @@
       <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1317,44 +1408,94 @@
       <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="10" t="s">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I20" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3">
+    <sortState ref="A4:I20">
+      <sortCondition ref="A3:A20"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>